--- a/Onto_Temporal/Ontologia_V1_Projeto_Temporal_Classes_Propriedades.xlsx
+++ b/Onto_Temporal/Ontologia_V1_Projeto_Temporal_Classes_Propriedades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Etapas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Temporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41952E56-5521-4E17-9ED1-BFC0F742D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F5F08-D9EB-4E9B-9269-66CF21318BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Esquemas" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$U$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$U$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="133">
   <si>
     <t>xsd:string</t>
   </si>
@@ -1366,25 +1366,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>de.tempos</t>
-  </si>
-  <si>
     <t>tem.duração</t>
   </si>
   <si>
     <t>Functional</t>
-  </si>
-  <si>
-    <t>SuperClass
-3</t>
-  </si>
-  <si>
-    <t>SuperClass
-2</t>
-  </si>
-  <si>
-    <t>SuperClass
-4</t>
   </si>
   <si>
     <t>Classe
@@ -1599,15 +1584,6 @@
     <t>Evento</t>
   </si>
   <si>
-    <t>EventoHorário</t>
-  </si>
-  <si>
-    <t>EventoCalendário</t>
-  </si>
-  <si>
-    <t>EventoMacro</t>
-  </si>
-  <si>
     <t>tem.descrição</t>
   </si>
   <si>
@@ -1626,28 +1602,97 @@
     <t>eventos</t>
   </si>
   <si>
-    <t>deSimulação</t>
-  </si>
-  <si>
-    <t>dePlanejamento</t>
-  </si>
-  <si>
-    <t>deProjetação</t>
-  </si>
-  <si>
-    <t>deIdeação</t>
-  </si>
-  <si>
-    <t>deExecução</t>
-  </si>
-  <si>
-    <t>deOperação</t>
-  </si>
-  <si>
     <t>é.simultâneo.de</t>
   </si>
   <si>
     <t>Symmetric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de.processo </t>
+  </si>
+  <si>
+    <t>tem.identidade</t>
+  </si>
+  <si>
+    <t>Reflexive</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>Calendário</t>
+  </si>
+  <si>
+    <t>Horário</t>
+  </si>
+  <si>
+    <t>Macroevento</t>
+  </si>
+  <si>
+    <t>Microevento</t>
+  </si>
+  <si>
+    <t>Pulso</t>
+  </si>
+  <si>
+    <t>Tick</t>
+  </si>
+  <si>
+    <t>DeltaT</t>
+  </si>
+  <si>
+    <t>Crono.I</t>
+  </si>
+  <si>
+    <t>Crono.F</t>
+  </si>
+  <si>
+    <t>Super
+Class
+3</t>
+  </si>
+  <si>
+    <t>Super
+Class
+2</t>
+  </si>
+  <si>
+    <t>Super
+Class
+4</t>
+  </si>
+  <si>
+    <t>no.processo.de</t>
+  </si>
+  <si>
+    <t>na.data</t>
+  </si>
+  <si>
+    <t>no.horário</t>
+  </si>
+  <si>
+    <t>Ideação</t>
+  </si>
+  <si>
+    <t>Projetação</t>
+  </si>
+  <si>
+    <t>Simulação</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Obra</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>tem.identificador</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2053,9 +2098,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2083,9 +2125,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2233,35 +2272,24 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="122">
     <dxf>
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2290,6 +2318,14 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2456,6 +2492,122 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3767,7 +3919,7 @@
         <vertAlign val="baseline"/>
         <sz val="6"/>
         <color auto="1"/>
-        <name val="Arial Nova Cond"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -3777,7 +3929,689 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3805,18 +4639,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3842,702 +4676,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial Nova Cond"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4565,18 +4715,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color rgb="FF000000"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
+          <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4602,14 +4752,14 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color rgb="FF000000"/>
+        <color auto="1"/>
         <name val="Arial Nova Cond"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
+          <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -4649,10 +4799,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4686,10 +4836,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4717,7 +4867,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -4728,7 +4878,7 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4754,7 +4904,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Arial Nova Cond"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -4765,7 +4915,7 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4793,7 +4943,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -4830,7 +4980,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="6"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Arial Nova Cond"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -4877,14 +5027,12 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -4914,80 +5062,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
@@ -5096,43 +5170,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5959,7 +5996,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6014,7 +6051,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6069,7 +6106,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6124,7 +6161,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6179,7 +6216,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6234,7 +6271,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6289,7 +6326,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6344,7 +6381,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6399,7 +6436,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6454,7 +6491,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6509,7 +6546,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6564,7 +6601,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6619,7 +6656,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6674,7 +6711,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6729,7 +6766,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6784,7 +6821,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6839,7 +6876,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6894,7 +6931,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -6949,7 +6986,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7004,7 +7041,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7059,7 +7096,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7114,7 +7151,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7169,7 +7206,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7224,7 +7261,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7279,7 +7316,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7334,7 +7371,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7389,7 +7426,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7444,7 +7481,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7499,7 +7536,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7554,7 +7591,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7609,7 +7646,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7664,7 +7701,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7719,7 +7756,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7774,7 +7811,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7829,7 +7866,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7884,7 +7921,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7939,7 +7976,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -7994,7 +8031,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8049,7 +8086,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8104,7 +8141,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8159,7 +8196,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8214,7 +8251,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8269,7 +8306,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8324,7 +8361,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8379,7 +8416,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8434,7 +8471,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8489,7 +8526,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8544,7 +8581,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8599,7 +8636,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8654,7 +8691,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8709,7 +8746,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8764,7 +8801,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8819,7 +8856,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8874,7 +8911,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8929,7 +8966,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -8984,7 +9021,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9039,7 +9076,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9094,7 +9131,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9149,7 +9186,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9204,7 +9241,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9259,7 +9296,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9314,7 +9351,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9369,7 +9406,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9424,7 +9461,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9479,7 +9516,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9534,7 +9571,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9589,7 +9626,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9644,7 +9681,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9699,7 +9736,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9754,7 +9791,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9809,7 +9846,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9864,7 +9901,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9919,7 +9956,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -9974,7 +10011,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10029,7 +10066,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10084,7 +10121,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10139,7 +10176,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10194,7 +10231,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10249,7 +10286,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10304,7 +10341,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10359,7 +10396,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10414,7 +10451,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10469,7 +10506,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10524,7 +10561,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10579,7 +10616,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10634,7 +10671,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10689,7 +10726,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10744,7 +10781,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10799,7 +10836,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10854,7 +10891,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10909,7 +10946,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -10964,7 +11001,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11019,7 +11056,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11074,7 +11111,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11129,7 +11166,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11184,7 +11221,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11239,7 +11276,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11294,7 +11331,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11349,7 +11386,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11404,7 +11441,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11459,7 +11496,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11514,7 +11551,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11569,7 +11606,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11624,7 +11661,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11679,7 +11716,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11734,7 +11771,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11789,7 +11826,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11844,7 +11881,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11899,7 +11936,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -11954,7 +11991,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12009,7 +12046,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12064,7 +12101,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12119,7 +12156,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12174,7 +12211,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12229,7 +12266,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12284,7 +12321,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12339,7 +12376,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12394,7 +12431,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12449,7 +12486,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12504,7 +12541,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12559,7 +12596,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12614,7 +12651,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12669,7 +12706,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12724,7 +12761,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12779,7 +12816,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314325" cy="314325"/>
@@ -12834,44 +12871,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U17" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122" tableBorderDxfId="120" totalsRowBorderDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U22" totalsRowShown="0" headerRowDxfId="121" dataDxfId="119" headerRowBorderDxfId="120" tableBorderDxfId="118" totalsRowBorderDxfId="117">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="SuperClass_x000a_2" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="SuperClass_x000a_3" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="SuperClass_x000a_4" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="111"/>
-    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="109"/>
-    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="108"/>
-    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="107"/>
+    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="105">
       <calculatedColumnFormula>_xlfn.CONCAT("Conceitos: ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="106">
+    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="104">
       <calculatedColumnFormula>_xlfn.CONCAT(C2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="105">
+    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="103">
       <calculatedColumnFormula>_xlfn.CONCAT(D2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="104">
+    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="102">
       <calculatedColumnFormula>_xlfn.CONCAT(E2," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5">
       <calculatedColumnFormula>_xlfn.CONCAT(F2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="103">
+    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="101">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="102">
+    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="100">
       <calculatedColumnFormula>_xlfn.CONCAT("Consultar  ",S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="101"/>
-    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="100"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="99">
-      <calculatedColumnFormula>_xlfn.CONCAT("Normas-key_",A2)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="99"/>
+    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="98"/>
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="23">
+      <calculatedColumnFormula>_xlfn.CONCAT("Tempo-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12879,38 +12916,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V11" headerRowDxfId="98" dataDxfId="96" totalsRowDxfId="94" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V16" headerRowDxfId="97" dataDxfId="95" totalsRowDxfId="93" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="92">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="90" totalsRowDxfId="89">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="22" totalsRowDxfId="61">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="21" totalsRowDxfId="60">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12919,29 +12956,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="27"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13244,1293 +13281,1656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12:E17"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="13" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="10" style="13" customWidth="1"/>
-    <col min="13" max="13" width="7" style="13" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="13" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="12" customWidth="1"/>
+    <col min="7" max="11" width="7.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="10" style="12" customWidth="1"/>
+    <col min="13" max="15" width="6.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="32.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="12" customWidth="1"/>
     <col min="21" max="21" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="13"/>
+    <col min="22" max="16384" width="11.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="K1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="L1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="39" t="s">
+      <c r="Q1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="39" t="s">
+      <c r="D2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="43" t="str">
+      <c r="G2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="41" t="str">
         <f t="shared" ref="L2" si="0">_xlfn.CONCAT("Conceitos: ", B2)</f>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M2" s="43" t="str">
+      <c r="M2" s="41" t="str">
         <f t="shared" ref="M2:N2" si="1">_xlfn.CONCAT(C2," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N2" s="43" t="str">
+      <c r="N2" s="41" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O2" s="43" t="str">
+      <c r="O2" s="41" t="str">
         <f t="shared" ref="O2" si="2">_xlfn.CONCAT(E2," ")</f>
-        <v xml:space="preserve">EventoMacro </v>
-      </c>
-      <c r="P2" s="43" t="str">
+        <v xml:space="preserve">Macroevento </v>
+      </c>
+      <c r="P2" s="41" t="str">
         <f t="shared" ref="P2" si="3">_xlfn.CONCAT(F2," ")</f>
         <v xml:space="preserve">Era </v>
       </c>
-      <c r="Q2" s="43" t="str">
-        <f t="shared" ref="Q2:Q17" si="4">_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</f>
-        <v>Conceitos: Tempo Fato  Evento  EventoMacro  Era</v>
-      </c>
-      <c r="R2" s="57" t="str">
-        <f t="shared" ref="R2:R17" si="5">_xlfn.CONCAT("Consultar  ",S2)</f>
+      <c r="Q2" s="41" t="str">
+        <f t="shared" ref="Q2:Q22" si="4">_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Macroevento  Era</v>
+      </c>
+      <c r="R2" s="55" t="str">
+        <f t="shared" ref="R2:R22" si="5">_xlfn.CONCAT("Consultar  ",S2)</f>
         <v>Consultar  -</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="53" t="str">
-        <f t="shared" ref="U2:U10" si="6">_xlfn.CONCAT("Normas-key_",A2)</f>
-        <v>Normas-key_2</v>
+      <c r="U2" s="51" t="str">
+        <f t="shared" ref="U2:U22" si="6">_xlfn.CONCAT("Tempo-key_",A2)</f>
+        <v>Tempo-key_2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
-        <v>3</v>
-      </c>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="str">
-        <f t="shared" ref="L3:L17" si="7">_xlfn.CONCAT("Conceitos: ", B3)</f>
+      <c r="C3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="str">
+        <f t="shared" ref="L3:L22" si="7">_xlfn.CONCAT("Conceitos: ", B3)</f>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M3" s="43" t="str">
-        <f t="shared" ref="M3:M17" si="8">_xlfn.CONCAT(C3," ")</f>
+      <c r="M3" s="41" t="str">
+        <f t="shared" ref="M3:M22" si="8">_xlfn.CONCAT(C3," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N3" s="43" t="str">
-        <f t="shared" ref="N3:N17" si="9">_xlfn.CONCAT(D3," ")</f>
+      <c r="N3" s="41" t="str">
+        <f t="shared" ref="N3:N22" si="9">_xlfn.CONCAT(D3," ")</f>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O3" s="43" t="str">
-        <f t="shared" ref="O3:O17" si="10">_xlfn.CONCAT(E3," ")</f>
-        <v xml:space="preserve">EventoMacro </v>
-      </c>
-      <c r="P3" s="43" t="str">
-        <f t="shared" ref="P3:P17" si="11">_xlfn.CONCAT(F3," ")</f>
+      <c r="O3" s="41" t="str">
+        <f t="shared" ref="O3:O22" si="10">_xlfn.CONCAT(E3," ")</f>
+        <v xml:space="preserve">Macroevento </v>
+      </c>
+      <c r="P3" s="41" t="str">
+        <f t="shared" ref="P3:P22" si="11">_xlfn.CONCAT(F3," ")</f>
         <v xml:space="preserve">Época </v>
       </c>
-      <c r="Q3" s="43" t="str">
+      <c r="Q3" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoMacro  Época</v>
-      </c>
-      <c r="R3" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Macroevento  Época</v>
+      </c>
+      <c r="R3" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="53" t="str">
+      <c r="U3" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_3</v>
+        <v>Tempo-key_3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+    <row r="4" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="43" t="str">
+      <c r="C4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M4" s="43" t="str">
+      <c r="M4" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N4" s="43" t="str">
+      <c r="N4" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O4" s="43" t="str">
+      <c r="O4" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoCalendário </v>
-      </c>
-      <c r="P4" s="43" t="str">
+        <v xml:space="preserve">Microevento </v>
+      </c>
+      <c r="P4" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Pulso </v>
+      </c>
+      <c r="Q4" s="41" t="str">
+        <f t="shared" ref="Q4:Q5" si="12">_xlfn.CONCAT(SUBSTITUTE(L4, "null", " ")," ",SUBSTITUTE(M4, "null", " ")," ",SUBSTITUTE(N4, "null", " ")," ",SUBSTITUTE(O4, "null", " ")," ", SUBSTITUTE(F4, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Microevento  Pulso</v>
+      </c>
+      <c r="R4" s="55" t="str">
+        <f t="shared" ref="R4:R5" si="13">_xlfn.CONCAT("Consultar  ",S4)</f>
+        <v>Consultar  -</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="41" t="str">
+        <f t="shared" ref="L5" si="14">_xlfn.CONCAT("Conceitos: ", B5)</f>
+        <v>Conceitos: Tempo</v>
+      </c>
+      <c r="M5" s="41" t="str">
+        <f t="shared" ref="M5" si="15">_xlfn.CONCAT(C5," ")</f>
+        <v xml:space="preserve">Fato </v>
+      </c>
+      <c r="N5" s="41" t="str">
+        <f t="shared" ref="N5" si="16">_xlfn.CONCAT(D5," ")</f>
+        <v xml:space="preserve">Evento </v>
+      </c>
+      <c r="O5" s="41" t="str">
+        <f t="shared" ref="O5" si="17">_xlfn.CONCAT(E5," ")</f>
+        <v xml:space="preserve">Microevento </v>
+      </c>
+      <c r="P5" s="41" t="str">
+        <f t="shared" ref="P5" si="18">_xlfn.CONCAT(F5," ")</f>
+        <v xml:space="preserve">Tick </v>
+      </c>
+      <c r="Q5" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>Conceitos: Tempo Fato  Evento  Microevento  Tick</v>
+      </c>
+      <c r="R5" s="55" t="str">
+        <f t="shared" si="13"/>
+        <v>Consultar  -</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>6</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Conceitos: Tempo</v>
+      </c>
+      <c r="M6" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Fato </v>
+      </c>
+      <c r="N6" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Evento </v>
+      </c>
+      <c r="O6" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Calendário </v>
+      </c>
+      <c r="P6" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Ano </v>
       </c>
-      <c r="Q4" s="43" t="str">
+      <c r="Q6" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoCalendário  Ano</v>
-      </c>
-      <c r="R4" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Calendário  Ano</v>
+      </c>
+      <c r="R6" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="T6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="53" t="str">
+      <c r="U6" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_4</v>
+        <v>Tempo-key_6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>5</v>
-      </c>
-      <c r="B5" s="23" t="s">
+    <row r="7" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="43" t="str">
+      <c r="C7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M5" s="43" t="str">
+      <c r="M7" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N5" s="43" t="str">
+      <c r="N7" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O5" s="43" t="str">
+      <c r="O7" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoCalendário </v>
-      </c>
-      <c r="P5" s="43" t="str">
+        <v xml:space="preserve">Calendário </v>
+      </c>
+      <c r="P7" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Mês </v>
       </c>
-      <c r="Q5" s="43" t="str">
+      <c r="Q7" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoCalendário  Mês</v>
-      </c>
-      <c r="R5" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Calendário  Mês</v>
+      </c>
+      <c r="R7" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="T7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="53" t="str">
+      <c r="U7" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_5</v>
+        <v>Tempo-key_7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>6</v>
-      </c>
-      <c r="B6" s="23" t="s">
+    <row r="8" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="43" t="str">
+      <c r="C8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M6" s="43" t="str">
+      <c r="M8" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N6" s="43" t="str">
+      <c r="N8" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O6" s="43" t="str">
+      <c r="O8" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoCalendário </v>
-      </c>
-      <c r="P6" s="43" t="str">
+        <v xml:space="preserve">Calendário </v>
+      </c>
+      <c r="P8" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Semana </v>
       </c>
-      <c r="Q6" s="43" t="str">
+      <c r="Q8" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoCalendário  Semana</v>
-      </c>
-      <c r="R6" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Calendário  Semana</v>
+      </c>
+      <c r="R8" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S8" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="T8" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="53" t="str">
+      <c r="U8" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_6</v>
+        <v>Tempo-key_8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
-        <v>7</v>
-      </c>
-      <c r="B7" s="23" t="s">
+    <row r="9" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="43" t="str">
+      <c r="C9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M7" s="43" t="str">
+      <c r="M9" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N7" s="43" t="str">
+      <c r="N9" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O7" s="43" t="str">
+      <c r="O9" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoCalendário </v>
-      </c>
-      <c r="P7" s="43" t="str">
+        <v xml:space="preserve">Calendário </v>
+      </c>
+      <c r="P9" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Dia </v>
       </c>
-      <c r="Q7" s="43" t="str">
+      <c r="Q9" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoCalendário  Dia</v>
-      </c>
-      <c r="R7" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Calendário  Dia</v>
+      </c>
+      <c r="R9" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S9" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T9" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="53" t="str">
+      <c r="U9" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_7</v>
+        <v>Tempo-key_9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
-        <v>8</v>
-      </c>
-      <c r="B8" s="23" t="s">
+    <row r="10" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>10</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="C10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="str">
+      <c r="E10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M8" s="43" t="str">
+      <c r="M10" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N8" s="43" t="str">
+      <c r="N10" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O8" s="43" t="str">
+      <c r="O10" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoHorário </v>
-      </c>
-      <c r="P8" s="43" t="str">
+        <v xml:space="preserve">Horário </v>
+      </c>
+      <c r="P10" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Hora </v>
       </c>
-      <c r="Q8" s="43" t="str">
+      <c r="Q10" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoHorário  Hora</v>
-      </c>
-      <c r="R8" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Horário  Hora</v>
+      </c>
+      <c r="R10" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S10" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="T10" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="53" t="str">
+      <c r="U10" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_8</v>
+        <v>Tempo-key_10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
-        <v>9</v>
-      </c>
-      <c r="B9" s="23" t="s">
+    <row r="11" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>11</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="43" t="str">
+      <c r="C11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M9" s="43" t="str">
+      <c r="M11" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N9" s="43" t="str">
+      <c r="N11" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O9" s="43" t="str">
+      <c r="O11" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoHorário </v>
-      </c>
-      <c r="P9" s="43" t="str">
+        <v xml:space="preserve">Horário </v>
+      </c>
+      <c r="P11" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Minuto </v>
       </c>
-      <c r="Q9" s="43" t="str">
+      <c r="Q11" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoHorário  Minuto</v>
-      </c>
-      <c r="R9" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Horário  Minuto</v>
+      </c>
+      <c r="R11" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S9" s="44" t="s">
+      <c r="S11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="44" t="s">
+      <c r="T11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="53" t="str">
+      <c r="U11" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_9</v>
+        <v>Tempo-key_11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <v>10</v>
-      </c>
-      <c r="B10" s="23" t="s">
+    <row r="12" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>12</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="43" t="str">
+      <c r="C12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M10" s="43" t="str">
+      <c r="M12" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N10" s="43" t="str">
+      <c r="N12" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O10" s="43" t="str">
+      <c r="O12" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoHorário </v>
-      </c>
-      <c r="P10" s="43" t="str">
+        <v xml:space="preserve">Horário </v>
+      </c>
+      <c r="P12" s="41" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Segundo </v>
       </c>
-      <c r="Q10" s="43" t="str">
+      <c r="Q12" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoHorário  Segundo</v>
-      </c>
-      <c r="R10" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Horário  Segundo</v>
+      </c>
+      <c r="R12" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S10" s="44" t="s">
+      <c r="S12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="44" t="s">
+      <c r="T12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="53" t="str">
+      <c r="U12" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>Normas-key_10</v>
+        <v>Tempo-key_12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="58" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <v>11</v>
-      </c>
-      <c r="B11" s="23" t="s">
+    <row r="13" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>13</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="43" t="str">
+      <c r="C13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="41" t="str">
+        <f t="shared" ref="L13" si="19">_xlfn.CONCAT("Conceitos: ", B13)</f>
+        <v>Conceitos: Tempo</v>
+      </c>
+      <c r="M13" s="41" t="str">
+        <f t="shared" ref="M13" si="20">_xlfn.CONCAT(C13," ")</f>
+        <v xml:space="preserve">Fato </v>
+      </c>
+      <c r="N13" s="41" t="str">
+        <f t="shared" ref="N13" si="21">_xlfn.CONCAT(D13," ")</f>
+        <v xml:space="preserve">Evento </v>
+      </c>
+      <c r="O13" s="41" t="str">
+        <f t="shared" ref="O13" si="22">_xlfn.CONCAT(E13," ")</f>
+        <v xml:space="preserve">Horário </v>
+      </c>
+      <c r="P13" s="41" t="str">
+        <f t="shared" ref="P13" si="23">_xlfn.CONCAT(F13," ")</f>
+        <v xml:space="preserve">Milisegundo </v>
+      </c>
+      <c r="Q13" s="41" t="str">
+        <f t="shared" ref="Q13" si="24">_xlfn.CONCAT(SUBSTITUTE(L13, "null", " ")," ",SUBSTITUTE(M13, "null", " ")," ",SUBSTITUTE(N13, "null", " ")," ",SUBSTITUTE(O13, "null", " ")," ", SUBSTITUTE(F13, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Horário  Milisegundo</v>
+      </c>
+      <c r="R13" s="55" t="str">
+        <f t="shared" ref="R13" si="25">_xlfn.CONCAT("Consultar  ",S13)</f>
+        <v>Consultar  -</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>14</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="67" t="str">
+        <f>_xlfn.CONCAT("Conceitos: ", B14)</f>
+        <v>Conceitos: Tempo</v>
+      </c>
+      <c r="M14" s="67" t="str">
+        <f>_xlfn.CONCAT(C14," ")</f>
+        <v xml:space="preserve">Fato </v>
+      </c>
+      <c r="N14" s="41" t="str">
+        <f>_xlfn.CONCAT(D14," ")</f>
+        <v xml:space="preserve">Evento </v>
+      </c>
+      <c r="O14" s="41" t="str">
+        <f>_xlfn.CONCAT(E14," ")</f>
+        <v xml:space="preserve">Duração </v>
+      </c>
+      <c r="P14" s="41" t="str">
+        <f>_xlfn.CONCAT(F14," ")</f>
+        <v xml:space="preserve">Crono.I </v>
+      </c>
+      <c r="Q14" s="67" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(L14, "null", " ")," ",SUBSTITUTE(M14, "null", " ")," ",SUBSTITUTE(N14, "null", " ")," ",SUBSTITUTE(O14, "null", " ")," ", SUBSTITUTE(F14, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Duração  Crono.I</v>
+      </c>
+      <c r="R14" s="67" t="str">
+        <f>_xlfn.CONCAT("Consultar  ",S14)</f>
+        <v>Consultar  -</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>15</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="67" t="str">
+        <f>_xlfn.CONCAT("Conceitos: ", B15)</f>
+        <v>Conceitos: Tempo</v>
+      </c>
+      <c r="M15" s="67" t="str">
+        <f>_xlfn.CONCAT(C15," ")</f>
+        <v xml:space="preserve">Fato </v>
+      </c>
+      <c r="N15" s="41" t="str">
+        <f>_xlfn.CONCAT(D15," ")</f>
+        <v xml:space="preserve">Evento </v>
+      </c>
+      <c r="O15" s="41" t="str">
+        <f>_xlfn.CONCAT(E15," ")</f>
+        <v xml:space="preserve">Duração </v>
+      </c>
+      <c r="P15" s="41" t="str">
+        <f>_xlfn.CONCAT(F15," ")</f>
+        <v xml:space="preserve">Crono.F </v>
+      </c>
+      <c r="Q15" s="67" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(L15, "null", " ")," ",SUBSTITUTE(M15, "null", " ")," ",SUBSTITUTE(N15, "null", " ")," ",SUBSTITUTE(O15, "null", " ")," ", SUBSTITUTE(F15, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Duração  Crono.F</v>
+      </c>
+      <c r="R15" s="67" t="str">
+        <f>_xlfn.CONCAT("Consultar  ",S15)</f>
+        <v>Consultar  -</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M11" s="43" t="str">
+      <c r="M16" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N11" s="43" t="str">
+      <c r="N16" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O11" s="43" t="str">
+      <c r="O16" s="41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">EventoHorário </v>
-      </c>
-      <c r="P11" s="43" t="str">
+        <v xml:space="preserve">Duração </v>
+      </c>
+      <c r="P16" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Milisegundo </v>
-      </c>
-      <c r="Q11" s="43" t="str">
+        <v xml:space="preserve">DeltaT </v>
+      </c>
+      <c r="Q16" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  EventoHorário  Milisegundo</v>
-      </c>
-      <c r="R11" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Duração  DeltaT</v>
+      </c>
+      <c r="R16" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S16" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="44" t="s">
+      <c r="T16" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="53" t="str">
-        <f t="shared" ref="U11:U15" si="12">_xlfn.CONCAT("Normas-key_",A11)</f>
-        <v>Normas-key_11</v>
+      <c r="U16" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>12</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="17" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>17</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="43" t="str">
-        <f t="shared" ref="L12" si="13">_xlfn.CONCAT("Conceitos: ", B12)</f>
+      <c r="C17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="41" t="str">
+        <f t="shared" ref="L17" si="26">_xlfn.CONCAT("Conceitos: ", B17)</f>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M12" s="43" t="str">
-        <f t="shared" ref="M12" si="14">_xlfn.CONCAT(C12," ")</f>
+      <c r="M17" s="41" t="str">
+        <f t="shared" ref="M17" si="27">_xlfn.CONCAT(C17," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N12" s="43" t="str">
-        <f t="shared" ref="N12" si="15">_xlfn.CONCAT(D12," ")</f>
+      <c r="N17" s="41" t="str">
+        <f t="shared" ref="N17" si="28">_xlfn.CONCAT(D17," ")</f>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O12" s="43" t="str">
-        <f t="shared" ref="O12" si="16">_xlfn.CONCAT(E12," ")</f>
+      <c r="O17" s="41" t="str">
+        <f t="shared" ref="O17" si="29">_xlfn.CONCAT(E17," ")</f>
         <v xml:space="preserve">Etapa </v>
       </c>
-      <c r="P12" s="43" t="str">
-        <f t="shared" ref="P12" si="17">_xlfn.CONCAT(F12," ")</f>
-        <v xml:space="preserve">deIdeação </v>
-      </c>
-      <c r="Q12" s="43" t="str">
-        <f t="shared" ref="Q12" si="18">_xlfn.CONCAT(SUBSTITUTE(L12, "null", " ")," ",SUBSTITUTE(M12, "null", " ")," ",SUBSTITUTE(N12, "null", " ")," ",SUBSTITUTE(O12, "null", " ")," ", SUBSTITUTE(F12, "null", " "))</f>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  deIdeação</v>
-      </c>
-      <c r="R12" s="57" t="str">
+      <c r="P17" s="41" t="str">
+        <f t="shared" ref="P17" si="30">_xlfn.CONCAT(F17," ")</f>
+        <v xml:space="preserve">Ideação </v>
+      </c>
+      <c r="Q17" s="41" t="str">
+        <f t="shared" ref="Q17" si="31">_xlfn.CONCAT(SUBSTITUTE(L17, "null", " ")," ",SUBSTITUTE(M17, "null", " ")," ",SUBSTITUTE(N17, "null", " ")," ",SUBSTITUTE(O17, "null", " ")," ", SUBSTITUTE(F17, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Ideação</v>
+      </c>
+      <c r="R17" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="44" t="s">
+      <c r="T17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="53" t="str">
-        <f t="shared" ref="U12" si="19">_xlfn.CONCAT("Normas-key_",A12)</f>
-        <v>Normas-key_12</v>
+      <c r="U17" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_17</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>13</v>
-      </c>
-      <c r="B13" s="23" t="s">
+    <row r="18" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>18</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="43" t="str">
+      <c r="C18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M13" s="43" t="str">
+      <c r="M18" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N13" s="43" t="str">
+      <c r="N18" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O13" s="43" t="str">
+      <c r="O18" s="41" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">Etapa </v>
       </c>
-      <c r="P13" s="43" t="str">
+      <c r="P18" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">deProjetação </v>
-      </c>
-      <c r="Q13" s="43" t="str">
+        <v xml:space="preserve">Projetação </v>
+      </c>
+      <c r="Q18" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  deProjetação</v>
-      </c>
-      <c r="R13" s="57" t="str">
-        <f t="shared" ref="R13" si="20">_xlfn.CONCAT("Consultar  ",S13)</f>
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Projetação</v>
+      </c>
+      <c r="R18" s="55" t="str">
+        <f t="shared" ref="R18" si="32">_xlfn.CONCAT("Consultar  ",S18)</f>
         <v>Consultar  -</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="44" t="s">
+      <c r="T18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>Normas-key_13</v>
+      <c r="U18" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_18</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
-        <v>14</v>
-      </c>
-      <c r="B14" s="23" t="s">
+    <row r="19" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>19</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="43" t="str">
-        <f t="shared" ref="L14" si="21">_xlfn.CONCAT("Conceitos: ", B14)</f>
+      <c r="C19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="41" t="str">
+        <f t="shared" ref="L19" si="33">_xlfn.CONCAT("Conceitos: ", B19)</f>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M14" s="43" t="str">
-        <f t="shared" ref="M14" si="22">_xlfn.CONCAT(C14," ")</f>
+      <c r="M19" s="41" t="str">
+        <f t="shared" ref="M19" si="34">_xlfn.CONCAT(C19," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N14" s="43" t="str">
-        <f t="shared" ref="N14" si="23">_xlfn.CONCAT(D14," ")</f>
+      <c r="N19" s="41" t="str">
+        <f t="shared" ref="N19" si="35">_xlfn.CONCAT(D19," ")</f>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O14" s="43" t="str">
-        <f t="shared" ref="O14" si="24">_xlfn.CONCAT(E14," ")</f>
+      <c r="O19" s="41" t="str">
+        <f t="shared" ref="O19" si="36">_xlfn.CONCAT(E19," ")</f>
         <v xml:space="preserve">Etapa </v>
       </c>
-      <c r="P14" s="43" t="str">
-        <f t="shared" ref="P14" si="25">_xlfn.CONCAT(F14," ")</f>
-        <v xml:space="preserve">deSimulação </v>
-      </c>
-      <c r="Q14" s="43" t="str">
-        <f t="shared" ref="Q14" si="26">_xlfn.CONCAT(SUBSTITUTE(L14, "null", " ")," ",SUBSTITUTE(M14, "null", " ")," ",SUBSTITUTE(N14, "null", " ")," ",SUBSTITUTE(O14, "null", " ")," ", SUBSTITUTE(F14, "null", " "))</f>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  deSimulação</v>
-      </c>
-      <c r="R14" s="57" t="str">
+      <c r="P19" s="41" t="str">
+        <f t="shared" ref="P19" si="37">_xlfn.CONCAT(F19," ")</f>
+        <v xml:space="preserve">Simulação </v>
+      </c>
+      <c r="Q19" s="41" t="str">
+        <f t="shared" ref="Q19" si="38">_xlfn.CONCAT(SUBSTITUTE(L19, "null", " ")," ",SUBSTITUTE(M19, "null", " ")," ",SUBSTITUTE(N19, "null", " ")," ",SUBSTITUTE(O19, "null", " ")," ", SUBSTITUTE(F19, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Simulação</v>
+      </c>
+      <c r="R19" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="44" t="s">
+      <c r="T19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="53" t="str">
-        <f t="shared" ref="U14" si="27">_xlfn.CONCAT("Normas-key_",A14)</f>
-        <v>Normas-key_14</v>
+      <c r="U19" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_19</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <v>15</v>
-      </c>
-      <c r="B15" s="23" t="s">
+    <row r="20" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>20</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="43" t="str">
+      <c r="C20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M15" s="43" t="str">
+      <c r="M20" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N15" s="43" t="str">
+      <c r="N20" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O15" s="43" t="str">
+      <c r="O20" s="41" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">Etapa </v>
       </c>
-      <c r="P15" s="43" t="str">
+      <c r="P20" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">dePlanejamento </v>
-      </c>
-      <c r="Q15" s="43" t="str">
+        <v xml:space="preserve">Planejamento </v>
+      </c>
+      <c r="Q20" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  dePlanejamento</v>
-      </c>
-      <c r="R15" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Planejamento</v>
+      </c>
+      <c r="R20" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S15" s="44" t="s">
+      <c r="S20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="44" t="s">
+      <c r="T20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>Normas-key_15</v>
+      <c r="U20" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_20</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
-        <v>16</v>
-      </c>
-      <c r="B16" s="23" t="s">
+    <row r="21" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>21</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="43" t="str">
+      <c r="C21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="41" t="str">
+        <f t="shared" ref="L21" si="39">_xlfn.CONCAT("Conceitos: ", B21)</f>
+        <v>Conceitos: Tempo</v>
+      </c>
+      <c r="M21" s="41" t="str">
+        <f t="shared" ref="M21" si="40">_xlfn.CONCAT(C21," ")</f>
+        <v xml:space="preserve">Fato </v>
+      </c>
+      <c r="N21" s="41" t="str">
+        <f t="shared" ref="N21" si="41">_xlfn.CONCAT(D21," ")</f>
+        <v xml:space="preserve">Evento </v>
+      </c>
+      <c r="O21" s="41" t="str">
+        <f t="shared" ref="O21" si="42">_xlfn.CONCAT(E21," ")</f>
+        <v xml:space="preserve">Etapa </v>
+      </c>
+      <c r="P21" s="41" t="str">
+        <f t="shared" ref="P21" si="43">_xlfn.CONCAT(F21," ")</f>
+        <v xml:space="preserve">Obra </v>
+      </c>
+      <c r="Q21" s="41" t="str">
+        <f t="shared" ref="Q21" si="44">_xlfn.CONCAT(SUBSTITUTE(L21, "null", " ")," ",SUBSTITUTE(M21, "null", " ")," ",SUBSTITUTE(N21, "null", " ")," ",SUBSTITUTE(O21, "null", " ")," ", SUBSTITUTE(F21, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Obra</v>
+      </c>
+      <c r="R21" s="55" t="str">
+        <f t="shared" ref="R21" si="45">_xlfn.CONCAT("Consultar  ",S21)</f>
+        <v>Consultar  -</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="51" t="str">
+        <f t="shared" ref="U21" si="46">_xlfn.CONCAT("Tempo-key_",A21)</f>
+        <v>Tempo-key_21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>22</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="41" t="str">
         <f t="shared" si="7"/>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M16" s="43" t="str">
+      <c r="M22" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Fato </v>
       </c>
-      <c r="N16" s="43" t="str">
+      <c r="N22" s="41" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Evento </v>
       </c>
-      <c r="O16" s="43" t="str">
+      <c r="O22" s="41" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">Etapa </v>
       </c>
-      <c r="P16" s="43" t="str">
+      <c r="P22" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">deExecução </v>
-      </c>
-      <c r="Q16" s="43" t="str">
+        <v xml:space="preserve">Operação </v>
+      </c>
+      <c r="Q22" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  deExecução</v>
-      </c>
-      <c r="R16" s="57" t="str">
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Operação</v>
+      </c>
+      <c r="R22" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Consultar  -</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="S22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="53" t="str">
-        <f>_xlfn.CONCAT("Normas-key_",A16)</f>
-        <v>Normas-key_16</v>
+      <c r="U22" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Tempo-key_22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <v>17</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v>Conceitos: Tempo</v>
-      </c>
-      <c r="M17" s="43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Fato </v>
-      </c>
-      <c r="N17" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">Evento </v>
-      </c>
-      <c r="O17" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">Etapa </v>
-      </c>
-      <c r="P17" s="43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">deOperação </v>
-      </c>
-      <c r="Q17" s="43" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  deOperação</v>
-      </c>
-      <c r="R17" s="57" t="str">
-        <f t="shared" si="5"/>
-        <v>Consultar  -</v>
-      </c>
-      <c r="S17" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="53" t="str">
-        <f>_xlfn.CONCAT("Normas-key_",A17)</f>
-        <v>Normas-key_17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="13"/>
+    <row r="29" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F1048576 F1 G24">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+  <conditionalFormatting sqref="F23:F1048576 F1 G29">
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  <conditionalFormatting sqref="F23:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G23 H18:K24 G25:K1048576 G1:K17">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="G23:G28 H23:K29 G30:K1048576 G1:K22">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14548,107 +14948,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" style="25" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="25" customWidth="1"/>
-    <col min="23" max="16384" width="11.140625" style="13"/>
+    <col min="1" max="1" width="2.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8" style="23" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="22" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="11.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="G1" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="J1" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="K1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="L1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="M1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="N1" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="O1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="P1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="Q1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="R1" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="U1" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="58" t="s">
         <v>78</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14660,16 +15060,16 @@
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" ref="C2:C3" si="0">F2</f>
-        <v>de.tempos</v>
-      </c>
-      <c r="D2" s="50" t="s">
+        <v xml:space="preserve">de.processo </v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
@@ -14698,105 +15098,105 @@
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="9" t="str">
-        <f t="shared" ref="R2:R10" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
-        <v>Propriedade: de.tempos    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S2" s="9" t="str">
-        <f t="shared" ref="S2:S6" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
-        <v>Valor:  de.tempos</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="11" t="str">
-        <f t="shared" ref="U2:U4" si="3">_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</f>
-        <v>Refere-se a propriedade  de.tempos  &gt;  de.tempos</v>
-      </c>
-      <c r="V2" s="12" t="str">
-        <f t="shared" ref="V2:V4" si="4">C2</f>
-        <v>de.tempos</v>
+      <c r="Q2" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="8" t="str">
+        <f t="shared" ref="R2:R7" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
+        <v>Propriedade: de.processo     Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S2" s="8" t="str">
+        <f t="shared" ref="S2:S7" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
+        <v xml:space="preserve">Valor:  de.processo </v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="10" t="str">
+        <f t="shared" ref="U2:U5" si="3">_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</f>
+        <v xml:space="preserve">Refere-se a propriedade  de.processo   &gt;  de.processo </v>
+      </c>
+      <c r="V2" s="11" t="str">
+        <f t="shared" ref="V2:V5" si="4">C2</f>
+        <v xml:space="preserve">de.processo </v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="str">
+      <c r="B3" s="13" t="str">
         <f>E3</f>
-        <v>de.tempos</v>
-      </c>
-      <c r="C3" s="14" t="str">
+        <v xml:space="preserve">de.processo </v>
+      </c>
+      <c r="C3" s="13" t="str">
         <f t="shared" si="0"/>
         <v>eventos</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="str">
+      <c r="E3" s="14" t="str">
         <f>F2</f>
-        <v>de.tempos</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="18" t="str">
-        <f t="shared" ref="P3:P10" si="5">P2</f>
+        <v xml:space="preserve">de.processo </v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="69" t="str">
+        <f t="shared" ref="P3:P16" si="5">P2</f>
         <v>Tempo</v>
       </c>
-      <c r="Q3" s="18" t="str">
-        <f t="shared" ref="Q3:Q10" si="6">Q2</f>
+      <c r="Q3" s="69" t="str">
+        <f t="shared" ref="Q3:Q16" si="6">Q2</f>
         <v>Evento</v>
       </c>
-      <c r="R3" s="9" t="str">
+      <c r="R3" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: eventos    Domínio: Tempo     Range: Evento</v>
       </c>
-      <c r="S3" s="9" t="str">
+      <c r="S3" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  eventos</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="11" t="str">
+      <c r="T3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Refere-se a propriedade  eventos  &gt;  eventos</v>
       </c>
-      <c r="V3" s="12" t="str">
+      <c r="V3" s="11" t="str">
         <f t="shared" si="4"/>
         <v>eventos</v>
       </c>
@@ -14805,716 +15205,1096 @@
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="str">
-        <f>E4</f>
+      <c r="B4" s="17" t="str">
+        <f t="shared" ref="B4" si="7">E4</f>
         <v>eventos</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>MID(F4,FIND(".",F4,1)+1,100)</f>
-        <v>duração</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>90</v>
+        <f t="shared" ref="C4" si="8">MID(F4,FIND(".",F4,1)+1,100)</f>
+        <v>identidade</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>F3</f>
         <v>eventos</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="18" t="str">
+      <c r="H4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q4" s="18" t="str">
+      <c r="Q4" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Propriedade: tem.duração    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S4" s="9" t="str">
+      <c r="R4" s="8" t="str">
+        <f t="shared" ref="R4" si="9">_xlfn.CONCAT("Propriedade: ",  F4, "    Domínio: ", P4, "     Range: ", Q4)</f>
+        <v>Propriedade: tem.identidade    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S4" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  duração</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="11" t="str">
+        <v>Valor:  identidade</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.duração  &gt;  duração</v>
-      </c>
-      <c r="V4" s="12" t="str">
+        <v>Refere-se a propriedade  tem.identidade  &gt;  identidade</v>
+      </c>
+      <c r="V4" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>duração</v>
+        <v>identidade</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="str">
-        <f t="shared" ref="B5:B7" si="7">E5</f>
+      <c r="B5" s="17" t="str">
+        <f>E5</f>
         <v>eventos</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C7" si="8">MID(F5,FIND(".",F5,1)+1,100)</f>
-        <v>início</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>90</v>
+        <f>MID(F5,FIND(".",F5,1)+1,100)</f>
+        <v>duração</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>131</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>E4</f>
+        <f>F3</f>
         <v>eventos</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="18" t="str">
+      <c r="F5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q5" s="18" t="str">
+      <c r="Q5" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R5" s="9" t="str">
+      <c r="R5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.início    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S5" s="9" t="str">
+        <v>Propriedade: tem.duração    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  início</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="11" t="str">
-        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F5, "  &gt;  ",C5)</f>
-        <v>Refere-se a propriedade  tem.início  &gt;  início</v>
-      </c>
-      <c r="V5" s="12" t="str">
-        <f>C5</f>
-        <v>início</v>
+        <v>Valor:  duração</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Refere-se a propriedade  tem.duração  &gt;  duração</v>
+      </c>
+      <c r="V5" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>duração</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="str">
-        <f t="shared" si="7"/>
+      <c r="B6" s="17" t="str">
+        <f t="shared" ref="B6:B10" si="10">E6</f>
         <v>eventos</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>fim</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>90</v>
+        <f t="shared" ref="C6:C10" si="11">MID(F6,FIND(".",F6,1)+1,100)</f>
+        <v>início</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E7" si="9">E5</f>
+        <f>E5</f>
         <v>eventos</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="18" t="str">
+      <c r="F6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q6" s="18" t="str">
+      <c r="Q6" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R6" s="9" t="str">
+      <c r="R6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.fim    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S6" s="9" t="str">
+        <v>Propriedade: tem.início    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  fim</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="11" t="str">
+        <v>Valor:  início</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="10" t="str">
         <f>_xlfn.CONCAT("Refere-se a propriedade  ",F6, "  &gt;  ",C6)</f>
-        <v>Refere-se a propriedade  tem.fim  &gt;  fim</v>
-      </c>
-      <c r="V6" s="12" t="str">
+        <v>Refere-se a propriedade  tem.início  &gt;  início</v>
+      </c>
+      <c r="V6" s="11" t="str">
         <f>C6</f>
-        <v>fim</v>
+        <v>início</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="19" t="str">
-        <f t="shared" si="7"/>
+      <c r="B7" s="17" t="str">
+        <f t="shared" si="10"/>
         <v>eventos</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>descrição</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>fim</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E7:E11" si="12">E6</f>
         <v>eventos</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="18" t="str">
+      <c r="F7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q7" s="18" t="str">
+      <c r="Q7" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R7" s="9" t="str">
+      <c r="R7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.descrição    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S7" s="9" t="str">
-        <f t="shared" ref="S7:S10" si="10">_xlfn.CONCAT("Valor:  ", C7)</f>
-        <v>Valor:  descrição</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="11" t="str">
-        <f t="shared" ref="U7:U10" si="11">_xlfn.CONCAT("Refere-se a propriedade  ",F7, "  &gt;  ",C7)</f>
-        <v>Refere-se a propriedade  tem.descrição  &gt;  descrição</v>
-      </c>
-      <c r="V7" s="12" t="str">
-        <f t="shared" ref="V7:V10" si="12">C7</f>
-        <v>descrição</v>
+        <v>Propriedade: tem.fim    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valor:  fim</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F7, "  &gt;  ",C7)</f>
+        <v>Refere-se a propriedade  tem.fim  &gt;  fim</v>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>C7</f>
+        <v>fim</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="17" t="str">
         <f>E8</f>
-        <v>de.tempos</v>
-      </c>
-      <c r="C8" s="14" t="str">
-        <f>F8</f>
-        <v>cronograma</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="67" t="str">
-        <f>E3</f>
-        <v>de.tempos</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="18" t="str">
+        <v>eventos</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" ref="C8:C9" si="13">MID(F8,FIND(".",F8,1)+1,100)</f>
+        <v>data</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>eventos</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q8" s="18" t="str">
+      <c r="Q8" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Propriedade: cronograma    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S8" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>Valor:  cronograma</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>Refere-se a propriedade  cronograma  &gt;  cronograma</v>
-      </c>
-      <c r="V8" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>cronograma</v>
+      <c r="R8" s="8" t="str">
+        <f t="shared" ref="R8:R16" si="14">_xlfn.CONCAT("Propriedade: ",  F8, "    Domínio: ", P8, "     Range: ", Q8)</f>
+        <v>Propriedade: na.data    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S8" s="8" t="str">
+        <f t="shared" ref="S8:S16" si="15">_xlfn.CONCAT("Valor:  ", C8)</f>
+        <v>Valor:  data</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="10" t="str">
+        <f t="shared" ref="U8:U16" si="16">_xlfn.CONCAT("Refere-se a propriedade  ",F8, "  &gt;  ",C8)</f>
+        <v>Refere-se a propriedade  na.data  &gt;  data</v>
+      </c>
+      <c r="V8" s="11" t="str">
+        <f t="shared" ref="V8:V16" si="17">C8</f>
+        <v>data</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="str">
-        <f>Tabla2[[#This Row],[SuperProp
-(4)]]</f>
-        <v>cronograma</v>
+      <c r="B9" s="17" t="str">
+        <f>E9</f>
+        <v>eventos</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" ref="C9:C11" si="13">MID(F9,FIND(".",F9,1)+1,100)</f>
-        <v>depois.de</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>horário</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>F8</f>
-        <v>cronograma</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>eventos</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q9" s="18" t="str">
+      <c r="Q9" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Propriedade: é.depois.de    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S9" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>Valor:  depois.de</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>Refere-se a propriedade  é.depois.de  &gt;  depois.de</v>
-      </c>
-      <c r="V9" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>depois.de</v>
+      <c r="R9" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: no.horário    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S9" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  horário</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  no.horário  &gt;  horário</v>
+      </c>
+      <c r="V9" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>horário</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="str">
-        <f>Tabla2[[#This Row],[SuperProp
-(4)]]</f>
-        <v>cronograma</v>
-      </c>
-      <c r="C10" s="62" t="str">
-        <f t="shared" si="13"/>
-        <v>antes.de</v>
-      </c>
-      <c r="D10" s="63" t="s">
+      <c r="B10" s="17" t="str">
+        <f t="shared" si="10"/>
+        <v>eventos</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>processo.de</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="64" t="str">
-        <f>E9</f>
-        <v>cronograma</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="18" t="str">
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>eventos</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="69" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q10" s="18" t="str">
+      <c r="Q10" s="69" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Propriedade: é.antes.de    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>Valor:  antes.de</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>Refere-se a propriedade  é.antes.de  &gt;  antes.de</v>
-      </c>
-      <c r="V10" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>antes.de</v>
+      <c r="R10" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: no.processo.de    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S10" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  processo.de</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  no.processo.de  &gt;  processo.de</v>
+      </c>
+      <c r="V10" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>processo.de</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="17" t="str">
+        <f t="shared" ref="B11" si="18">E11</f>
+        <v>eventos</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" ref="C11" si="19">MID(F11,FIND(".",F11,1)+1,100)</f>
+        <v>identificador</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>eventos</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>Tempo</v>
+      </c>
+      <c r="Q11" s="69" t="str">
+        <f t="shared" si="6"/>
+        <v>Evento</v>
+      </c>
+      <c r="R11" s="8" t="str">
+        <f t="shared" ref="R11" si="20">_xlfn.CONCAT("Propriedade: ",  F11, "    Domínio: ", P11, "     Range: ", Q11)</f>
+        <v>Propriedade: tem.identificador    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S11" s="8" t="str">
+        <f t="shared" ref="S11" si="21">_xlfn.CONCAT("Valor:  ", C11)</f>
+        <v>Valor:  identificador</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="10" t="str">
+        <f t="shared" ref="U11" si="22">_xlfn.CONCAT("Refere-se a propriedade  ",F11, "  &gt;  ",C11)</f>
+        <v>Refere-se a propriedade  tem.identificador  &gt;  identificador</v>
+      </c>
+      <c r="V11" s="11" t="str">
+        <f t="shared" ref="V11" si="23">C11</f>
+        <v>identificador</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="str">
+        <f t="shared" ref="B12" si="24">E12</f>
+        <v>eventos</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" ref="C12" si="25">MID(F12,FIND(".",F12,1)+1,100)</f>
+        <v>descrição</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>E6</f>
+        <v>eventos</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>Tempo</v>
+      </c>
+      <c r="Q12" s="69" t="str">
+        <f t="shared" si="6"/>
+        <v>Evento</v>
+      </c>
+      <c r="R12" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: tem.descrição    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S12" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  descrição</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  tem.descrição  &gt;  descrição</v>
+      </c>
+      <c r="V12" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>descrição</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>E13</f>
+        <v xml:space="preserve">de.processo </v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f>F13</f>
+        <v>cronograma</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="65" t="str">
+        <f>E3</f>
+        <v xml:space="preserve">de.processo </v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>Tempo</v>
+      </c>
+      <c r="Q13" s="69" t="str">
+        <f t="shared" si="6"/>
+        <v>Evento</v>
+      </c>
+      <c r="R13" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: cronograma    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S13" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  cronograma</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  cronograma  &gt;  cronograma</v>
+      </c>
+      <c r="V13" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>cronograma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17" t="str">
         <f>Tabla2[[#This Row],[SuperProp
 (4)]]</f>
         <v>cronograma</v>
       </c>
-      <c r="C11" s="62" t="str">
-        <f t="shared" si="13"/>
-        <v>simultâneo.de</v>
-      </c>
-      <c r="D11" s="63" t="s">
+      <c r="C14" s="1" t="str">
+        <f t="shared" ref="C14:C16" si="26">MID(F14,FIND(".",F14,1)+1,100)</f>
+        <v>depois.de</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="64" t="str">
-        <f>E10</f>
+      <c r="E14" s="2" t="str">
+        <f>F13</f>
         <v>cronograma</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="18" t="str">
-        <f>P10</f>
+      <c r="F14" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="69" t="str">
+        <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q11" s="22" t="str">
-        <f>Q10</f>
+      <c r="Q14" s="69" t="str">
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
-      <c r="R11" s="9" t="str">
-        <f t="shared" ref="R11" si="14">_xlfn.CONCAT("Propriedade: ",  F11, "    Domínio: ", P11, "     Range: ", Q11)</f>
-        <v>Propriedade: é.simultâneo.de    Domínio: Tempo     Range: Evento</v>
-      </c>
-      <c r="S11" s="9" t="str">
-        <f t="shared" ref="S11" si="15">_xlfn.CONCAT("Valor:  ", C11)</f>
-        <v>Valor:  simultâneo.de</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="11" t="str">
-        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F11, "  &gt;  ",C11)</f>
-        <v>Refere-se a propriedade  é.simultâneo.de  &gt;  simultâneo.de</v>
-      </c>
-      <c r="V11" s="12" t="str">
-        <f>C11</f>
-        <v>simultâneo.de</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="R14" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: é.depois.de    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S14" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  depois.de</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  é.depois.de  &gt;  depois.de</v>
+      </c>
+      <c r="V14" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>depois.de</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f>Tabla2[[#This Row],[SuperProp
+(4)]]</f>
+        <v>cronograma</v>
+      </c>
+      <c r="C15" s="60" t="str">
+        <f t="shared" si="26"/>
+        <v>antes.de</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="62" t="str">
+        <f>E14</f>
+        <v>cronograma</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>Tempo</v>
+      </c>
+      <c r="Q15" s="69" t="str">
+        <f t="shared" si="6"/>
+        <v>Evento</v>
+      </c>
+      <c r="R15" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: é.antes.de    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S15" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  antes.de</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  é.antes.de  &gt;  antes.de</v>
+      </c>
+      <c r="V15" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>antes.de</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17" t="str">
+        <f>Tabla2[[#This Row],[SuperProp
+(4)]]</f>
+        <v>cronograma</v>
+      </c>
+      <c r="C16" s="60" t="str">
+        <f t="shared" si="26"/>
+        <v>simultâneo.de</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="62" t="str">
+        <f>E15</f>
+        <v>cronograma</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>Tempo</v>
+      </c>
+      <c r="Q16" s="69" t="str">
+        <f t="shared" si="6"/>
+        <v>Evento</v>
+      </c>
+      <c r="R16" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>Propriedade: é.simultâneo.de    Domínio: Tempo     Range: Evento</v>
+      </c>
+      <c r="S16" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor:  simultâneo.de</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Refere-se a propriedade  é.simultâneo.de  &gt;  simultâneo.de</v>
+      </c>
+      <c r="V16" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>simultâneo.de</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:E2 E4:E7 B4:B7 B9:B11 E9:E11">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+  <conditionalFormatting sqref="B2 D2:E2 B14:B16 E14:E16 B4:B12 E4:E12">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+  <conditionalFormatting sqref="D3:D16">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="8" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:O8 T2:T11">
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15 G16:O1048576">
-    <cfRule type="cellIs" dxfId="6" priority="42" operator="equal">
+  <conditionalFormatting sqref="T2:T16 G1:O16">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20 G21:O1048576">
+    <cfRule type="cellIs" dxfId="3" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q1048576">
-    <cfRule type="cellIs" dxfId="4" priority="40" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:O11">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q20:Q1048576">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E5 E8 C8" formula="1"/>
-    <ignoredError sqref="P2:Q2 B9:B11" calculatedColumn="1"/>
+    <ignoredError sqref="E6 E13 C13" formula="1"/>
+    <ignoredError sqref="P2:Q2 B14:B16" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -15532,204 +16312,204 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="6.5703125" style="25" customWidth="1"/>
-    <col min="11" max="21" width="6.5703125" style="33" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="33"/>
+    <col min="1" max="1" width="2.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="6.5703125" style="23" customWidth="1"/>
+    <col min="11" max="21" width="6.5703125" style="31" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:21" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="32" t="s">
+      <c r="B2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
-        <v>3</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="36" t="s">
+      <c r="A3" s="32">
+        <v>3</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15758,128 +16538,128 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="41"/>
+    <col min="1" max="1" width="2.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="39" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46">
+      <c r="A1" s="44">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
-      <c r="A2" s="46">
+      <c r="A2" s="44">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="46">
-        <v>3</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="44">
+        <v>3</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="46">
+      <c r="A4" s="44">
         <v>4</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="46">
+      <c r="A5" s="44">
         <v>5</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="46">
+      <c r="A6" s="44">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="46">
+      <c r="A7" s="44">
         <v>7</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46">
+      <c r="A8" s="44">
         <v>8</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46">
+      <c r="A9" s="44">
         <v>9</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46">
+      <c r="A10" s="44">
         <v>10</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="46">
+      <c r="A11" s="44">
         <v>11</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="46">
+      <c r="A12" s="44">
         <v>12</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="46">
+      <c r="A13" s="44">
         <v>13</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="47" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="46">
+      <c r="A14" s="44">
         <v>14</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="46">
+      <c r="A15" s="44">
         <v>15</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="47" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Onto_Temporal/Ontologia_V1_Projeto_Temporal_Classes_Propriedades.xlsx
+++ b/Onto_Temporal/Ontologia_V1_Projeto_Temporal_Classes_Propriedades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Temporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F5F08-D9EB-4E9B-9269-66CF21318BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473327A7-DBB4-4540-ABD3-935171A139AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
@@ -1674,9 +1674,6 @@
     <t>Ideação</t>
   </si>
   <si>
-    <t>Projetação</t>
-  </si>
-  <si>
     <t>Simulação</t>
   </si>
   <si>
@@ -1686,13 +1683,16 @@
     <t>Operação</t>
   </si>
   <si>
-    <t>Obra</t>
-  </si>
-  <si>
     <t>xsd:double</t>
   </si>
   <si>
     <t>tem.identificador</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Projetual</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2270,9 +2270,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,122 +2489,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3919,6 +3800,45 @@
         <vertAlign val="baseline"/>
         <sz val="6"/>
         <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -3930,6 +3850,82 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3956,6 +3952,45 @@
         <vertAlign val="baseline"/>
         <sz val="6"/>
         <color auto="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -4554,82 +4589,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color auto="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -5170,6 +5129,44 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -12907,7 +12904,7 @@
     </tableColumn>
     <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="99"/>
     <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="98"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="23">
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="97">
       <calculatedColumnFormula>_xlfn.CONCAT("Tempo-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12916,38 +12913,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V16" headerRowDxfId="97" dataDxfId="95" totalsRowDxfId="93" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V16" headerRowDxfId="96" dataDxfId="94" totalsRowDxfId="92" headerRowBorderDxfId="95" tableBorderDxfId="93" totalsRowBorderDxfId="91">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="88" totalsRowDxfId="87">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="22" totalsRowDxfId="61">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="21" totalsRowDxfId="60">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12956,36 +12953,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="26"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -13283,33 +13280,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A22"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="12" customWidth="1"/>
-    <col min="7" max="11" width="7.42578125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="12" customWidth="1"/>
+    <col min="7" max="11" width="7.44140625" style="23" customWidth="1"/>
     <col min="12" max="12" width="10" style="12" customWidth="1"/>
-    <col min="13" max="15" width="6.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="6.6640625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="32.88671875" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" style="12" customWidth="1"/>
     <col min="21" max="21" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="12"/>
+    <col min="22" max="16384" width="11.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>24</v>
       </c>
@@ -13374,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -13447,7 +13444,7 @@
         <v>Tempo-key_2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -13520,7 +13517,7 @@
         <v>Tempo-key_3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -13593,7 +13590,7 @@
         <v>Tempo-key_4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -13666,7 +13663,7 @@
         <v>Tempo-key_5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -13739,7 +13736,7 @@
         <v>Tempo-key_6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -13812,7 +13809,7 @@
         <v>Tempo-key_7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -13885,7 +13882,7 @@
         <v>Tempo-key_8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -13958,7 +13955,7 @@
         <v>Tempo-key_9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -14031,7 +14028,7 @@
         <v>Tempo-key_10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -14104,7 +14101,7 @@
         <v>Tempo-key_11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>12</v>
       </c>
@@ -14177,7 +14174,7 @@
         <v>Tempo-key_12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>13</v>
       </c>
@@ -14250,7 +14247,7 @@
         <v>Tempo-key_13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>14</v>
       </c>
@@ -14284,31 +14281,31 @@
       <c r="K14" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="67" t="str">
+      <c r="L14" s="41" t="str">
         <f>_xlfn.CONCAT("Conceitos: ", B14)</f>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M14" s="67" t="str">
-        <f>_xlfn.CONCAT(C14," ")</f>
+      <c r="M14" s="41" t="str">
+        <f t="shared" ref="M14:P15" si="26">_xlfn.CONCAT(C14," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
       <c r="N14" s="41" t="str">
-        <f>_xlfn.CONCAT(D14," ")</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Evento </v>
       </c>
       <c r="O14" s="41" t="str">
-        <f>_xlfn.CONCAT(E14," ")</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Duração </v>
       </c>
       <c r="P14" s="41" t="str">
-        <f>_xlfn.CONCAT(F14," ")</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Crono.I </v>
       </c>
-      <c r="Q14" s="67" t="str">
+      <c r="Q14" s="41" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(L14, "null", " ")," ",SUBSTITUTE(M14, "null", " ")," ",SUBSTITUTE(N14, "null", " ")," ",SUBSTITUTE(O14, "null", " ")," ", SUBSTITUTE(F14, "null", " "))</f>
         <v>Conceitos: Tempo Fato  Evento  Duração  Crono.I</v>
       </c>
-      <c r="R14" s="67" t="str">
+      <c r="R14" s="41" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S14)</f>
         <v>Consultar  -</v>
       </c>
@@ -14323,7 +14320,7 @@
         <v>Tempo-key_14</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>15</v>
       </c>
@@ -14357,31 +14354,31 @@
       <c r="K15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="67" t="str">
+      <c r="L15" s="41" t="str">
         <f>_xlfn.CONCAT("Conceitos: ", B15)</f>
         <v>Conceitos: Tempo</v>
       </c>
-      <c r="M15" s="67" t="str">
-        <f>_xlfn.CONCAT(C15," ")</f>
+      <c r="M15" s="41" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Fato </v>
       </c>
       <c r="N15" s="41" t="str">
-        <f>_xlfn.CONCAT(D15," ")</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Evento </v>
       </c>
       <c r="O15" s="41" t="str">
-        <f>_xlfn.CONCAT(E15," ")</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Duração </v>
       </c>
       <c r="P15" s="41" t="str">
-        <f>_xlfn.CONCAT(F15," ")</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">Crono.F </v>
       </c>
-      <c r="Q15" s="67" t="str">
+      <c r="Q15" s="41" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(L15, "null", " ")," ",SUBSTITUTE(M15, "null", " ")," ",SUBSTITUTE(N15, "null", " ")," ",SUBSTITUTE(O15, "null", " ")," ", SUBSTITUTE(F15, "null", " "))</f>
         <v>Conceitos: Tempo Fato  Evento  Duração  Crono.F</v>
       </c>
-      <c r="R15" s="67" t="str">
+      <c r="R15" s="41" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S15)</f>
         <v>Consultar  -</v>
       </c>
@@ -14396,7 +14393,7 @@
         <v>Tempo-key_15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="56" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -14469,7 +14466,7 @@
         <v>Tempo-key_16</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>17</v>
       </c>
@@ -14504,27 +14501,27 @@
         <v>3</v>
       </c>
       <c r="L17" s="41" t="str">
-        <f t="shared" ref="L17" si="26">_xlfn.CONCAT("Conceitos: ", B17)</f>
+        <f t="shared" ref="L17" si="27">_xlfn.CONCAT("Conceitos: ", B17)</f>
         <v>Conceitos: Tempo</v>
       </c>
       <c r="M17" s="41" t="str">
-        <f t="shared" ref="M17" si="27">_xlfn.CONCAT(C17," ")</f>
+        <f t="shared" ref="M17" si="28">_xlfn.CONCAT(C17," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
       <c r="N17" s="41" t="str">
-        <f t="shared" ref="N17" si="28">_xlfn.CONCAT(D17," ")</f>
+        <f t="shared" ref="N17" si="29">_xlfn.CONCAT(D17," ")</f>
         <v xml:space="preserve">Evento </v>
       </c>
       <c r="O17" s="41" t="str">
-        <f t="shared" ref="O17" si="29">_xlfn.CONCAT(E17," ")</f>
+        <f t="shared" ref="O17" si="30">_xlfn.CONCAT(E17," ")</f>
         <v xml:space="preserve">Etapa </v>
       </c>
       <c r="P17" s="41" t="str">
-        <f t="shared" ref="P17" si="30">_xlfn.CONCAT(F17," ")</f>
+        <f t="shared" ref="P17" si="31">_xlfn.CONCAT(F17," ")</f>
         <v xml:space="preserve">Ideação </v>
       </c>
       <c r="Q17" s="41" t="str">
-        <f t="shared" ref="Q17" si="31">_xlfn.CONCAT(SUBSTITUTE(L17, "null", " ")," ",SUBSTITUTE(M17, "null", " ")," ",SUBSTITUTE(N17, "null", " ")," ",SUBSTITUTE(O17, "null", " ")," ", SUBSTITUTE(F17, "null", " "))</f>
+        <f t="shared" ref="Q17" si="32">_xlfn.CONCAT(SUBSTITUTE(L17, "null", " ")," ",SUBSTITUTE(M17, "null", " ")," ",SUBSTITUTE(N17, "null", " ")," ",SUBSTITUTE(O17, "null", " ")," ", SUBSTITUTE(F17, "null", " "))</f>
         <v>Conceitos: Tempo Fato  Evento  Etapa  Ideação</v>
       </c>
       <c r="R17" s="55" t="str">
@@ -14542,7 +14539,7 @@
         <v>Tempo-key_17</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -14559,7 +14556,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>3</v>
@@ -14594,14 +14591,14 @@
       </c>
       <c r="P18" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Projetação </v>
+        <v xml:space="preserve">Projetual </v>
       </c>
       <c r="Q18" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  Projetação</v>
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Projetual</v>
       </c>
       <c r="R18" s="55" t="str">
-        <f t="shared" ref="R18" si="32">_xlfn.CONCAT("Consultar  ",S18)</f>
+        <f t="shared" ref="R18" si="33">_xlfn.CONCAT("Consultar  ",S18)</f>
         <v>Consultar  -</v>
       </c>
       <c r="S18" s="42" t="s">
@@ -14615,7 +14612,7 @@
         <v>Tempo-key_18</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -14632,7 +14629,7 @@
         <v>58</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>3</v>
@@ -14650,27 +14647,27 @@
         <v>3</v>
       </c>
       <c r="L19" s="41" t="str">
-        <f t="shared" ref="L19" si="33">_xlfn.CONCAT("Conceitos: ", B19)</f>
+        <f t="shared" ref="L19" si="34">_xlfn.CONCAT("Conceitos: ", B19)</f>
         <v>Conceitos: Tempo</v>
       </c>
       <c r="M19" s="41" t="str">
-        <f t="shared" ref="M19" si="34">_xlfn.CONCAT(C19," ")</f>
+        <f t="shared" ref="M19" si="35">_xlfn.CONCAT(C19," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
       <c r="N19" s="41" t="str">
-        <f t="shared" ref="N19" si="35">_xlfn.CONCAT(D19," ")</f>
+        <f t="shared" ref="N19" si="36">_xlfn.CONCAT(D19," ")</f>
         <v xml:space="preserve">Evento </v>
       </c>
       <c r="O19" s="41" t="str">
-        <f t="shared" ref="O19" si="36">_xlfn.CONCAT(E19," ")</f>
+        <f t="shared" ref="O19" si="37">_xlfn.CONCAT(E19," ")</f>
         <v xml:space="preserve">Etapa </v>
       </c>
       <c r="P19" s="41" t="str">
-        <f t="shared" ref="P19" si="37">_xlfn.CONCAT(F19," ")</f>
+        <f t="shared" ref="P19" si="38">_xlfn.CONCAT(F19," ")</f>
         <v xml:space="preserve">Simulação </v>
       </c>
       <c r="Q19" s="41" t="str">
-        <f t="shared" ref="Q19" si="38">_xlfn.CONCAT(SUBSTITUTE(L19, "null", " ")," ",SUBSTITUTE(M19, "null", " ")," ",SUBSTITUTE(N19, "null", " ")," ",SUBSTITUTE(O19, "null", " ")," ", SUBSTITUTE(F19, "null", " "))</f>
+        <f t="shared" ref="Q19" si="39">_xlfn.CONCAT(SUBSTITUTE(L19, "null", " ")," ",SUBSTITUTE(M19, "null", " ")," ",SUBSTITUTE(N19, "null", " ")," ",SUBSTITUTE(O19, "null", " ")," ", SUBSTITUTE(F19, "null", " "))</f>
         <v>Conceitos: Tempo Fato  Evento  Etapa  Simulação</v>
       </c>
       <c r="R19" s="55" t="str">
@@ -14688,7 +14685,7 @@
         <v>Tempo-key_19</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -14705,7 +14702,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>3</v>
@@ -14761,7 +14758,7 @@
         <v>Tempo-key_20</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>21</v>
       </c>
@@ -14778,7 +14775,7 @@
         <v>58</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>3</v>
@@ -14796,31 +14793,31 @@
         <v>3</v>
       </c>
       <c r="L21" s="41" t="str">
-        <f t="shared" ref="L21" si="39">_xlfn.CONCAT("Conceitos: ", B21)</f>
+        <f t="shared" ref="L21" si="40">_xlfn.CONCAT("Conceitos: ", B21)</f>
         <v>Conceitos: Tempo</v>
       </c>
       <c r="M21" s="41" t="str">
-        <f t="shared" ref="M21" si="40">_xlfn.CONCAT(C21," ")</f>
+        <f t="shared" ref="M21" si="41">_xlfn.CONCAT(C21," ")</f>
         <v xml:space="preserve">Fato </v>
       </c>
       <c r="N21" s="41" t="str">
-        <f t="shared" ref="N21" si="41">_xlfn.CONCAT(D21," ")</f>
+        <f t="shared" ref="N21" si="42">_xlfn.CONCAT(D21," ")</f>
         <v xml:space="preserve">Evento </v>
       </c>
       <c r="O21" s="41" t="str">
-        <f t="shared" ref="O21" si="42">_xlfn.CONCAT(E21," ")</f>
+        <f t="shared" ref="O21" si="43">_xlfn.CONCAT(E21," ")</f>
         <v xml:space="preserve">Etapa </v>
       </c>
       <c r="P21" s="41" t="str">
-        <f t="shared" ref="P21" si="43">_xlfn.CONCAT(F21," ")</f>
-        <v xml:space="preserve">Obra </v>
+        <f t="shared" ref="P21" si="44">_xlfn.CONCAT(F21," ")</f>
+        <v xml:space="preserve">Construção </v>
       </c>
       <c r="Q21" s="41" t="str">
-        <f t="shared" ref="Q21" si="44">_xlfn.CONCAT(SUBSTITUTE(L21, "null", " ")," ",SUBSTITUTE(M21, "null", " ")," ",SUBSTITUTE(N21, "null", " ")," ",SUBSTITUTE(O21, "null", " ")," ", SUBSTITUTE(F21, "null", " "))</f>
-        <v>Conceitos: Tempo Fato  Evento  Etapa  Obra</v>
+        <f t="shared" ref="Q21" si="45">_xlfn.CONCAT(SUBSTITUTE(L21, "null", " ")," ",SUBSTITUTE(M21, "null", " ")," ",SUBSTITUTE(N21, "null", " ")," ",SUBSTITUTE(O21, "null", " ")," ", SUBSTITUTE(F21, "null", " "))</f>
+        <v>Conceitos: Tempo Fato  Evento  Etapa  Construção</v>
       </c>
       <c r="R21" s="55" t="str">
-        <f t="shared" ref="R21" si="45">_xlfn.CONCAT("Consultar  ",S21)</f>
+        <f t="shared" ref="R21" si="46">_xlfn.CONCAT("Consultar  ",S21)</f>
         <v>Consultar  -</v>
       </c>
       <c r="S21" s="42" t="s">
@@ -14830,11 +14827,11 @@
         <v>43</v>
       </c>
       <c r="U21" s="51" t="str">
-        <f t="shared" ref="U21" si="46">_xlfn.CONCAT("Tempo-key_",A21)</f>
+        <f t="shared" ref="U21" si="47">_xlfn.CONCAT("Tempo-key_",A21)</f>
         <v>Tempo-key_21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>22</v>
       </c>
@@ -14851,7 +14848,7 @@
         <v>58</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>3</v>
@@ -14907,7 +14904,7 @@
         <v>Tempo-key_22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="12"/>
     </row>
   </sheetData>
@@ -14929,7 +14926,7 @@
   <conditionalFormatting sqref="F23:F1048576 F1">
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G28 H23:K29 G30:K1048576 G1:K22">
+  <conditionalFormatting sqref="G1:K22 G23:G28 H23:K29 G30:K1048576">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -14950,40 +14947,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="22" customWidth="1"/>
     <col min="2" max="2" width="8" style="23" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="22" customWidth="1"/>
     <col min="16" max="16" width="6" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="23" customWidth="1"/>
-    <col min="23" max="16384" width="11.140625" style="12"/>
+    <col min="17" max="17" width="5.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.44140625" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="11.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -15051,7 +15048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -15098,10 +15095,10 @@
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="67" t="s">
         <v>97</v>
       </c>
       <c r="R2" s="8" t="str">
@@ -15124,7 +15121,7 @@
         <v xml:space="preserve">de.processo </v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -15173,11 +15170,11 @@
       <c r="O3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="69" t="str">
+      <c r="P3" s="68" t="str">
         <f t="shared" ref="P3:P16" si="5">P2</f>
         <v>Tempo</v>
       </c>
-      <c r="Q3" s="69" t="str">
+      <c r="Q3" s="68" t="str">
         <f t="shared" ref="Q3:Q16" si="6">Q2</f>
         <v>Evento</v>
       </c>
@@ -15201,7 +15198,7 @@
         <v>eventos</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -15250,11 +15247,11 @@
       <c r="O4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="69" t="str">
+      <c r="P4" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q4" s="69" t="str">
+      <c r="Q4" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15278,7 +15275,7 @@
         <v>identidade</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -15291,7 +15288,7 @@
         <v>duração</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>F3</f>
@@ -15327,11 +15324,11 @@
       <c r="O5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="69" t="str">
+      <c r="P5" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q5" s="69" t="str">
+      <c r="Q5" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15355,7 +15352,7 @@
         <v>duração</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -15404,11 +15401,11 @@
       <c r="O6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="69" t="str">
+      <c r="P6" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q6" s="69" t="str">
+      <c r="Q6" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15432,7 +15429,7 @@
         <v>início</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -15481,11 +15478,11 @@
       <c r="O7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="69" t="str">
+      <c r="P7" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q7" s="69" t="str">
+      <c r="Q7" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15509,7 +15506,7 @@
         <v>fim</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -15558,11 +15555,11 @@
       <c r="O8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="69" t="str">
+      <c r="P8" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q8" s="69" t="str">
+      <c r="Q8" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15586,7 +15583,7 @@
         <v>data</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -15635,11 +15632,11 @@
       <c r="O9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="69" t="str">
+      <c r="P9" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q9" s="69" t="str">
+      <c r="Q9" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15663,7 +15660,7 @@
         <v>horário</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -15712,11 +15709,11 @@
       <c r="O10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="69" t="str">
+      <c r="P10" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q10" s="69" t="str">
+      <c r="Q10" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15740,7 +15737,7 @@
         <v>processo.de</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -15760,7 +15757,7 @@
         <v>eventos</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>3</v>
@@ -15789,11 +15786,11 @@
       <c r="O11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="69" t="str">
+      <c r="P11" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q11" s="69" t="str">
+      <c r="Q11" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15817,7 +15814,7 @@
         <v>identificador</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -15866,11 +15863,11 @@
       <c r="O12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="69" t="str">
+      <c r="P12" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q12" s="69" t="str">
+      <c r="Q12" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15894,7 +15891,7 @@
         <v>descrição</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -15943,11 +15940,11 @@
       <c r="O13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="69" t="str">
+      <c r="P13" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q13" s="69" t="str">
+      <c r="Q13" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -15971,7 +15968,7 @@
         <v>cronograma</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -16021,11 +16018,11 @@
       <c r="O14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="69" t="str">
+      <c r="P14" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q14" s="69" t="str">
+      <c r="Q14" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -16049,7 +16046,7 @@
         <v>depois.de</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -16099,11 +16096,11 @@
       <c r="O15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="69" t="str">
+      <c r="P15" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q15" s="69" t="str">
+      <c r="Q15" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -16127,7 +16124,7 @@
         <v>antes.de</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -16177,11 +16174,11 @@
       <c r="O16" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="69" t="str">
+      <c r="P16" s="68" t="str">
         <f t="shared" si="5"/>
         <v>Tempo</v>
       </c>
-      <c r="Q16" s="69" t="str">
+      <c r="Q16" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
@@ -16205,7 +16202,7 @@
         <v>simultâneo.de</v>
       </c>
     </row>
-    <row r="17" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -16216,7 +16213,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -16227,7 +16224,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -16238,7 +16235,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:15" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -16250,7 +16247,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:E2 B14:B16 E14:E16 B4:B12 E4:E12">
+  <conditionalFormatting sqref="B2 D2:E2 B4:B12 E4:E12 B14:B16 E14:E16">
     <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -16270,7 +16267,7 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T16 G1:O16">
+  <conditionalFormatting sqref="G1:O16 T2:T16">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -16310,12 +16307,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="6.5703125" style="23" customWidth="1"/>
-    <col min="11" max="21" width="6.5703125" style="31" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="31"/>
+    <col min="1" max="1" width="2.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="6.5546875" style="23" customWidth="1"/>
+    <col min="11" max="21" width="6.5546875" style="31" customWidth="1"/>
+    <col min="22" max="16384" width="11.109375" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16536,11 +16533,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="39" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="39"/>
+    <col min="1" max="1" width="2.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="39" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16551,7 +16548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A2" s="44">
         <v>2</v>
       </c>
@@ -16559,7 +16556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A3" s="44">
         <v>3</v>
       </c>
@@ -16567,7 +16564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
         <v>4</v>
       </c>
@@ -16575,7 +16572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="54.6" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
         <v>5</v>
       </c>
